--- a/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
+++ b/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Contact_Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Email</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Akash</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Saha</t>
   </si>
   <si>
@@ -63,18 +60,6 @@
     <t>Test team manual</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Akashsaha17051997@gmail.com</t>
-  </si>
-  <si>
-    <t>Akash@debika</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>First_Name</t>
   </si>
   <si>
@@ -154,6 +139,36 @@
   </si>
   <si>
     <t>10 million</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Descriptions</t>
+  </si>
+  <si>
+    <t>Ammounts</t>
+  </si>
+  <si>
+    <t>Commissions</t>
+  </si>
+  <si>
+    <t>Next_Steps_Descriptions</t>
+  </si>
+  <si>
+    <t>Test_Deals</t>
+  </si>
+  <si>
+    <t>This is a test perpose Description</t>
+  </si>
+  <si>
+    <t>Description for test perpose</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -215,7 +230,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +248,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -538,149 +556,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>700147</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9988774455</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1">
-        <v>700147</v>
-      </c>
-      <c r="L2">
-        <v>9988774455</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="H4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="H5" s="1"/>
-      <c r="N5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
-    <hyperlink ref="A3:A5" r:id="rId4" display="Akashsaha17051997@gmail.com"/>
-    <hyperlink ref="B3:B5" r:id="rId5" display="Akash@debika"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -688,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,60 +694,60 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1">
         <v>700147</v>
@@ -775,28 +756,28 @@
         <v>7003785365</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -806,14 +787,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
+++ b/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contact_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Company_Data" sheetId="2" r:id="rId2"/>
     <sheet name="Deals_Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Task_Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Email</t>
   </si>
@@ -169,6 +170,42 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Test_Task</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Due_Date</t>
+  </si>
+  <si>
+    <t>Close_Date</t>
+  </si>
+  <si>
+    <t>Due_Month</t>
+  </si>
+  <si>
+    <t>Close_Month</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Technical Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test the Software </t>
   </si>
 </sst>
 </file>
@@ -178,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +244,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +298,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,6 +319,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -847,4 +933,93 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="13">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8">
+        <v>30</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
+++ b/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Email</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t xml:space="preserve">To test the Software </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reviewing</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
@@ -937,10 +949,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -954,10 +966,11 @@
     <col min="7" max="7" width="15.28515625" style="8" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="16.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
@@ -985,8 +998,14 @@
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
@@ -1013,6 +1032,12 @@
       </c>
       <c r="I2" s="8" t="s">
         <v>62</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
+++ b/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contact_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Company_Data" sheetId="2" r:id="rId2"/>
     <sheet name="Deals_Data" sheetId="3" r:id="rId3"/>
     <sheet name="Task_Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Calender_data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>Email</t>
   </si>
@@ -218,6 +219,36 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Month_Year</t>
+  </si>
+  <si>
+    <t>January 2023</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Alert_Before</t>
+  </si>
+  <si>
+    <t>Test_Event</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Test_the version</t>
+  </si>
+  <si>
+    <t>kolkata, 700147</t>
   </si>
 </sst>
 </file>
@@ -310,7 +341,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,6 +380,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -951,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1047,4 +1084,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="14"/>
+    <col min="3" max="3" width="11.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="15">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
+++ b/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13605" windowHeight="3150"/>
   </bookViews>
   <sheets>
     <sheet name="Contact_Data" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="Deals_Data" sheetId="3" r:id="rId3"/>
     <sheet name="Task_Data" sheetId="4" r:id="rId4"/>
     <sheet name="Calender_data" sheetId="5" r:id="rId5"/>
+    <sheet name="Login_data" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:H9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>Email</t>
   </si>
@@ -161,9 +163,6 @@
     <t>Next_Steps_Descriptions</t>
   </si>
   <si>
-    <t>Test_Deals</t>
-  </si>
-  <si>
     <t>This is a test perpose Description</t>
   </si>
   <si>
@@ -249,6 +248,42 @@
   </si>
   <si>
     <t>kolkata, 700147</t>
+  </si>
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Expectation</t>
+  </si>
+  <si>
+    <t>Akash@debika</t>
+  </si>
+  <si>
+    <t>akashsaha17051997@gmail.com</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>akashsaha17051997</t>
+  </si>
+  <si>
+    <t>Akash@1997</t>
+  </si>
+  <si>
+    <t>gmail.com</t>
+  </si>
+  <si>
+    <t>Akash@1995</t>
+  </si>
+  <si>
+    <t>Snehajit</t>
   </si>
 </sst>
 </file>
@@ -258,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +353,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,7 +382,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,7 +426,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -691,9 +735,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -758,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -925,7 +969,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,13 +1005,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7">
         <v>0.7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -976,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1012,45 +1056,45 @@
         <v>41</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="D2" s="13">
         <v>5</v>
@@ -1065,16 +1109,16 @@
         <v>30</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1090,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,58 +1152,129 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="H1" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="15">
+        <v>67</v>
+      </c>
+      <c r="B2" s="14">
         <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>76</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="35" style="16" customWidth="1"/>
+    <col min="3" max="3" width="27" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
+++ b/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akash.saha\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92CB103-6D14-4866-AB84-098F273C50CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13605" windowHeight="3150"/>
+    <workbookView xWindow="4650" yWindow="2925" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact_Data" sheetId="1" r:id="rId1"/>
@@ -13,14 +19,14 @@
     <sheet name="Task_Data" sheetId="4" r:id="rId4"/>
     <sheet name="Calender_data" sheetId="5" r:id="rId5"/>
     <sheet name="Login_data" sheetId="6" r:id="rId6"/>
+    <sheet name="Case_Data" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:H9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>Email</t>
   </si>
@@ -284,16 +290,76 @@
   </si>
   <si>
     <t>Snehajit</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Deal</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Date_Deadline</t>
+  </si>
+  <si>
+    <t>Test_CRM</t>
+  </si>
+  <si>
+    <t>Test_7894561230</t>
+  </si>
+  <si>
+    <t>Bas</t>
+  </si>
+  <si>
+    <t>test_deals</t>
+  </si>
+  <si>
+    <t>General Support</t>
+  </si>
+  <si>
+    <t>Deadline_Month</t>
+  </si>
+  <si>
+    <t>March 2023</t>
+  </si>
+  <si>
+    <t>Test_Tag</t>
+  </si>
+  <si>
+    <t>To test the software</t>
+  </si>
+  <si>
+    <t>Akashsaha1997@gmail.com</t>
+  </si>
+  <si>
+    <t>Date_Closing</t>
+  </si>
+  <si>
+    <t>Assigned_To</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Test Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +425,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -382,7 +460,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,6 +509,15 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -443,6 +530,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -491,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,9 +614,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,6 +666,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -734,10 +858,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -837,7 +961,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -845,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -965,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1029,7 +1153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1123,7 +1247,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1131,7 +1255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1209,7 +1333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1270,11 +1394,139 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5C283E-07F4-4007-A9CA-D16CC59D926F}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="21" style="17" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="17" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
+++ b/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akash.saha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92CB103-6D14-4866-AB84-098F273C50CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07E6F8-2358-4B01-BB9D-8CC5829852E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="2925" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="705" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact_Data" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Calender_data" sheetId="5" r:id="rId5"/>
     <sheet name="Login_data" sheetId="6" r:id="rId6"/>
     <sheet name="Case_Data" sheetId="7" r:id="rId7"/>
+    <sheet name="Case_Filter" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
   <si>
     <t>Email</t>
   </si>
@@ -350,6 +351,36 @@
   </si>
   <si>
     <t>Test Manager</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Equals</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Contains</t>
   </si>
 </sst>
 </file>
@@ -460,7 +491,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +548,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1407,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5C283E-07F4-4007-A9CA-D16CC59D926F}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,4 +1566,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2315A06D-841E-492F-8F16-E249BA29880D}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="14" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18" style="20" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C9" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
+++ b/FreeCRM_TQA_test/Data_From Excel_File/TEST_Excel.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akash.saha\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07E6F8-2358-4B01-BB9D-8CC5829852E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CDEF2338-C728-49FC-AB71-BC12D4C905C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="705" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="705" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact_Data" sheetId="1" r:id="rId1"/>
@@ -23,6 +18,7 @@
     <sheet name="Case_Filter" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:G4"/>
 </workbook>
 </file>
 
@@ -896,7 +892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -1444,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5C283E-07F4-4007-A9CA-D16CC59D926F}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2315A06D-841E-492F-8F16-E249BA29880D}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
